--- a/Elective Courses.xlsx
+++ b/Elective Courses.xlsx
@@ -885,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>

--- a/Elective Courses.xlsx
+++ b/Elective Courses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Course Code</t>
   </si>
@@ -389,144 +389,286 @@
     <t>Keywords</t>
   </si>
   <si>
-    <t>based tiva microcontroller', 'of tiva microcontroller', 'armv7 cortexm based', 'of armv7 cortexm', 'armv7 cortexm architecture', 'cortexm based microcontroller', 'tiva microcontroller the', 'microcontroller the course', 'tiva microcontroller', 'programming of armv7'</t>
-  </si>
-  <si>
-    <t>optical fiber and', 'of fiber optic', 'fiber optic measurement', 'various optical fiber', 'optical fiber', 'optical amplifiers fiber', 'optical fiber modes', 'about various optical', 'optical sources and', 'fiber optic'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of linux operating', 'aspects of linux', 'basics and linux', 'linux operating system', 'os basics', 'linux operating', 'system os basics', 'linux os', 'os basics and', 'os based server'
-</t>
-  </si>
-  <si>
-    <t>implementation using programming', 'of algebra mathematical', 'mathematical modelling', 'using computation', 'algebra mathematical modelling', 'methods problem solving', 'mathematical modelling numerical', 'application of algebra', 'implementation using', 'problem solving using'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">language processing method', 'automata model', 'finite automata model', 'language processing', 'provides finite automata', 'finite automata', 'automata model to', 'design language processing', 'to design language', 'it computes decision'
-</t>
-  </si>
-  <si>
-    <t>of embedded system', 'embedded system', 'embedded systems using', 'systems and rtos', 'embedded system design', 'embedded systems', 'microcontroller and freertos', 'real time systems', 'rtos further', 'time embedded systems'</t>
-  </si>
-  <si>
-    <t>lines waveguides microwave', 'rf and microwave', 'transmission lines waveguides', 'waveguides microwave components', 'waveguides microwave', 'microwave communications', 'lines waveguides', 'microwave communications like', 'circuit designs subject', 'microwave components'</t>
-  </si>
-  <si>
-    <t>networking concepts and', 'primary networking concepts', 'networking concepts', 'of networking', 'of networking applications', 'of primary networking', 'implement small networks', 'networking applications', 'primary networking', 'variety of networking'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machine intelligence', 'machine intelligence and', 'of machine intelligence', 'machine intelligence concern', 'machine intelligence the', 'machine learning algorithms', 'learning algorithms', 'algorithms for machine', 'machine learning', 'for machine intelligence'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of compiler construction', 'translation and compiler', 'compiler construction', 'compiler design', 'of compiler', 'compiler construction this', 'act of compiler', 'and compiler design', 'language translation and', 'of language translation'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">design of cmos', 'design digital system', 'digital system design', 'of cmos logic', 'cmos logic', 'students in vlsi', 'cmos logic circuits', 'of digital system', 'understand cmos', 'design digital'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of satellite communication', 'satellite communication the', 'fundamentals of satellite', 'of satellite links', 'satellite communication', 'satellite links for', 'satellite links', 'satellite services', 'of satellite', 'design of satellite'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cloud architecture course', 'basics of cloud', 'of cloud computing', 'security in cloud', 'for cloud architecture', 'cloud architecture', 'cloud computing and', 'cloud computing', 'working for cloud', 'on architecture service'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data mining and', 'various data mining', 'mining and data', 'data mining', 'data warehousing', 'data warehousing concepts', 'apply decision making', 'warehousing concepts and', 'information management', 'datasets learning'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net technologies are', 'net technologies', 'net framework', 'microsoft net framework', 'net framework that', 'microsoft net platform', 'net platform', 'microsoft net', 'of technologies', 'technologies are'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardware description language', 'verilog hardware description', 'the verilog hardware', 'verilog hardware', 'using hardware description', 'model the hardware', 'description language hdl', 'the verilog', 'hardware description', 'to the verilog'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of computer vision', 'computer vision applications', 'computer vision', 'vision applications', 'mining of visual', 'computer vision focuses', 'feature extraction', 'surveillance advanced rendering', 'processing feature extraction', 'signal processing'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of multimedia systems', 'technologies of multimedia', 'multimedia systems', 'multimedia systems the', 'current multimedia research', 'multimedia streaming system', 'multimedia streaming', 'the multimedia streaming', 'the multimedia', 'multimedia data'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parallel processing data', 'large data', 'special computing system', 'large data and', 'large datasets', 'handle large data', 'big data', 'large datasets large', 'large datasets are', 'datasets large'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web application development', 'students in web', 'web applications using', 'web application', 'java server', 'technology with java', 'dynamic web applications', 'web applications', 'server side technology', 'in web application'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freertos for cortex', 'freertos for', 'of rtos', 'scheduling porting freertos', 'porting freertos for', 'functions of rtos', 'porting freertos', 'cortex m3 microcontroller', 'of scheduling porting', 'related to os'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad hoc network', 'ad hoc wireless', 'mobile ad hoc', 'wireless adhoc network', 'hoc network', 'hoc wireless', 'hoc network using', 'wireless adhoc', 'between wireless adhoc', 'hoc wireless next'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fundamentals of iot', 'iot and learn', 'iot and understand', 'of iot and', 'applications of iot', 'requirements of iot', 'iot in various', 'iot and', 'of iot in', 'for iot and'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">students learn kotlin', 'learn kotlin programming', 'learn kotlin', 'kotlin programming', 'kotlin programming language', 'app development students', 'android app development', 'understand the android', 'the android platform', 'app development'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usable software systems', 'human computer interaction', 'computer interaction', 'software systems and', 'software systems', 'highly usable software', 'computer interaction theory', 'create highly usable', 'skills needed', 'skills needed to'
-</t>
-  </si>
-  <si>
-    <t>flutter basics', 'introduction of flutter', 'flutter flutter basics', 'flutter internals', 'flutter basics running', 'flutter flutter', 'of flutter flutter', 'apps widget flutter', 'flutter internals deep', 'widget flutter'</t>
-  </si>
-  <si>
-    <t>digital marketing market', 'marketing market research', 'of digital marketing', 'marketing pinterest marketing', 'marketing market', 'digital marketing', 'marketing facebook marketing', 'marketing copywriting', 'marketing twitter marketing', 'email marketing'</t>
-  </si>
-  <si>
-    <t>vlsi physical design', 'vlsi physical', 'the chip design', 'chip design', 'chip design for', 'design flow chip', 'low power design', 'chip low power', 'clock tree synthesis', 'chip floor planning'</t>
-  </si>
-  <si>
-    <t>of visualizations in', 'visualizations visual analytics', 'visualizations in', 'visual analytics', 'of visualizations gestalt', 'of visualizations', 'attributes of visualizations', 'types of visualizations', 'visualizations types of', 'of visualizations types'</t>
-  </si>
-  <si>
-    <t>introduction to mongodb', 'mongodb introduction', 'mongodb introduction bigdata', 'with mongodb', 'in mongodb', 'mongodb making', 'with mongodb making', 'graphing with mongodb', 'mongodb document', 'to mongodb'</t>
-  </si>
-  <si>
-    <t>basics network', 'basics network architectures', 'and routers basics', 'network basics', 'network architectures osi', 'network architectures', 'network basics network', 'ethernet basics', 'and network topologies', 'network topologies ethernet'</t>
-  </si>
-  <si>
-    <t>fpga design flow', 'fpga architecture', 'programming the fpga', 'design flow fpga', 'design explore fpga', 'fpga architecture configurable', 'fpga design', 'explore fpga technologies', 'programmable chip fpga', 'fpga technologies'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c++', 'methods stl', 'program to advantages', 'member functions', 'vector methods stl', 'in stl', 'stl input', 'methods stl input', 'advantages function in', 'data structures in'
-</t>
-  </si>
-  <si>
-    <t>for xr development', 'xr development', 'and configuring lighting', 'creating the player', 'material creation', 'the player animator', 'development setting', 'creating post processing', 'player animator', 'creating lights and'</t>
-  </si>
-  <si>
-    <t>devops devops process', 'devops process', 'overview of jenkins', 'understating of devops', 'project jenkins', 'of devops', 'of jenkins code', 'devops process git', 'process git introduction', 'devops devops'</t>
-  </si>
-  <si>
-    <t>foundations of cnns', 'convolutional network', 'simple convolutional network', 'resnet50 cnn', 'with resnet50 cnn', 'object detection convolutional', 'convolution net architecture', 'convnets transfer learning', 'convolutional network example', 'cnns edge detection'</t>
-  </si>
-  <si>
-    <t>linux fundamentals system', 'linux fundamentals', 'beaglebone hardware understanding', 'system linux fundamentals', 'beaglebone using', 'on beaglebone hardware', 'on beaglebone using', 'beaglebone hardware', 'arm systems and', 'testing on beaglebone'</t>
-  </si>
-  <si>
-    <t>sequence spread spectrum', 'spread spectrum performance', 'spread spectrum frequency', 'spectrum frequency hopping', 'digital communications and', 'spectrum and cdma', 'frequency hopping', 'frequency hopped spread', 'digital communications', 'spectrum performance analysis'</t>
-  </si>
-  <si>
     <t>Laravel Fundamentals, Laravel Blade templating engine, Database - Laravel Migrations, Raw SQL Queries, Database - Eloquent / ORM, Database - Eloquent Relationships, Database – Tinker, Eloquent One to One Relationship CRUD, Eloquent One to Many Relationship CRUD, Forms and Validation, Database - Some more model manipulation, Forms - Uploading files, Middleware - Security / Protection, Permissions &amp; Roles, WYSIWYG and File Management installation, Deploying our app to a shared hosting account. Also ReactJs develpoment and  NodeJS development and Express JS development.</t>
   </si>
   <si>
-    <t>laravel fundamentals laravel', 'react development', 'nodeJS and ExpressJS', 'fundamentals laravel blade', 'database laravel', 'engine database laravel', 'laravel blade', 'database eloquent', 'database tinker eloquent', 'database laravel migrations'</t>
+    <t xml:space="preserve">['tiva microcontroller course', 'based tiva microcontroller', 'armv7 cortexm based', 'armv7 cortexm architecture', 'programming armv7 cortexm', 'cortexm based microcontroller', 'tiva microcontroller', 'microcontroller course', 'peripherals tiva microcontroller', 'applications armv7 cortexm']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['optical fiber study', 'fiber optic measurement', 'techniques fiber optic', 'various optical fiber', 'optical fiber', 'study various optical', 'associated optical fiber', 'optical amplifiers fiber', 'optical fiber modes', 'fiber optic']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['basics linux', 'os basics linux', 'basics linux os', 'os basics', 'theoretical aspects linux', 'operating os basics', 'linux operating os', 'linux operating', 'aspects linux operating', 'linux os']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['implementation using programming', 'concepts application algebra', 'mathematical modelling', 'application algebra mathematical', 'using computation', 'algebra mathematical modelling', 'practical problems implementation', 'methods problem solving', 'important concepts application', 'mathematical modelling numerical']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['language processing method', 'automata model', 'finite automata model', 'language processing', 'processing method computer', 'thinking method computer', 'automata model design', 'provides finite automata', 'finite automata', 'method computer computes']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['systems rtos course', 'embedded systems using', 'rtos course introduce', 'based microcontroller freertos', 'embedded systems', 'systems rtos', 'microcontroller freertos', 'rtos course', 'real time systems', 'design real time']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['lines waveguides microwave', 'transmission lines waveguides', 'waveguides microwave components', 'rf microwave communications', 'waveguides microwave', 'microwave communications', 'lines waveguides', 'rf microwave', 'microwave communications like', 'components used rf']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['introduction primary networking', 'primary networking concepts', 'networking concepts', 'networking concepts technologies', 'implement small networks', 'networking applications', 'primary networking', 'networks variety networking', 'variety networking applications', 'small networks']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['algorithms machine intelligence', 'machine intelligence', 'machine intelligence concern', 'machine intelligence pursue', 'machine learning algorithms', 'algorithms automatically learn', 'learning algorithms', 'machine learning', 'machine intelligence focus', 'algorithms automatically']
+'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['translation compiler design', 'compiler construction', 'compiler design', 'translation compiler', 'compiler construction course', 'language translation compiler', 'act compiler construction', 'practice act compiler', 'act compiler', 'language translation']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['learn design cmos', 'design cmos logic', 'design cmos', 'subsystems design digital', 'cmos logic', 'cmos logic circuits', 'students vlsi semiconductor', 'students vlsi', 'potential students vlsi', 'understand cmos']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['fundamentals satellite communication', 'satellite communication course', 'students fundamentals satellite', 'fundamentals satellite', 'satellite communication', 'design satellite links', 'satellite links various', 'satellite links', 'satellites satellite services', 'analysis design satellite']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['cloud architecture course', 'basics cloud computing', 'cloud architecture', 'technologies working cloud', 'basics cloud', 'working cloud architecture', 'cloud computing', 'security cloud', 'privacy security cloud', 'working cloud']
+'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['various data mining', 'mining data warehousing', 'data mining data', 'mining data', 'data mining', 'data warehousing', 'data warehousing concepts', 'datasets learning course', 'techniques apply decision', 'warehousing concepts techniques']
+'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['net technologies', 'net framework', 'microsoft net framework', 'net technologies blend', 'microsoft net platform', 'net platform', 'net framework allows', 'microsoft net', 'technologies supported microsoft', 'technologies provided microsoft']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['hardware description language', 'verilog hardware description', 'verilog hardware', 'students verilog hardware', 'model hardware using', 'learn model hardware', 'introduce students verilog', 'using hardware description', 'model hardware', 'description language hdl']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['computer vision applications', 'computer vision', 'vision applications', 'field computer vision', 'computer vision focuses', 'feature extraction', 'surveillance advanced rendering', 'processing feature extraction', 'signal processing', 'applications range biometrics']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['multimedia systems', 'technologies multimedia systems', 'current multimedia research', 'multimedia streaming', 'multimedia research discussed', 'technologies multimedia', 'current technologies multimedia', 'technologies current multimedia', 'processing retrieving multimedia', 'multimedia streaming term']
+'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['parallel processing data', 'large data', 'pattern large datasets', 'large datasets', 'handle large data', 'big data', 'large datasets huge', 'big data extremely', 'large datasets large', 'datasets large']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['web application development', 'server technology java', 'students web application', 'web applications using', 'web application', 'java server', 'dynamic web applications', 'web applications', 'java frameworks', 'technology java']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['freertos cortex', 'freertos cortex m3', 'various functions rtos', 'scheduling porting freertos', 'porting freertos cortex', 'os scheduling techniques', 'functions rtos', 'concepts related os', 'porting freertos', 'related os scheduling']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['ad hoc network', 'ad hoc wireless', 'mobile ad hoc', 'wireless adhoc network', 'adhoc network wireless', 'hoc network', 'hoc wireless', 'hoc network using', 'wireless adhoc', 'wireless sensor network']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['introduce fundamentals iot', 'fundamentals iot understand', 'fundamentals iot', 'iot learn use', 'iot understand', 'iot learn', 'understand applications iot', 'iot understand applications', 'enablers iot learn', 'applications iot various']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['students learn kotlin', 'learn kotlin programming', 'learn kotlin', 'students understand android', 'kotlin programming', 'kotlin programming language', 'app development students', 'android app development', 'understand android', 'app development']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['usable software systems', 'human computer interaction', 'computer interaction', 'knowledge skills needed', 'software systems', 'highly usable software', 'skills needed create', 'advancement human computer', 'computer interaction theory', 'create highly usable']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['introduction flutter', 'flutter basics', 'introduction flutter flutter', 'flutter flutter basics', 'flutter internals', 'flutter basics running', 'flutter flutter', 'apps widget flutter', 'flutter internals deep', 'widget flutter']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['introduction digital marketing', 'digital marketing market', 'marketing market research', 'marketing pinterest marketing', 'marketing market', 'digital marketing', 'marketing facebook marketing', 'marketing copywriting', 'marketing twitter marketing', 'email marketing']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['vlsi physical design', 'vlsi physical', 'chip design', 'testability chip design', 'chip design testability', 'design flow chip', 'power consumption chip', 'delay testability chip', 'low power design', 'chip low power']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['visualizations visual analytics', 'visualizations types visualizations', 'types visualizations suitable', 'visual analytics', 'visual analytics appropriate', 'visualizations gestalt', 'visualizations suitable', 'visuals types visualizations', 'interactive visualizations visual', 'visualizations types']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['introduction mongodb', 'mongodb introduction', 'mongodb introduction bigdata', 'data mongodb', 'introduction mongodb document', 'mongodb making', 'queries graphing mongodb', 'mongodb document', 'mongodb query', 'mongodb document model']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['basics network', 'basics network architectures', 'network basics', 'network architectures osi', 'network architectures', 'network basics network', 'ethernet basics', 'routers basics data', 'network topologies ethernet', 'topologies ethernet basics']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['fpga design flow', 'fpga architecture', 'design flow fpga', 'design explore fpga', 'fpga architecture configurable', 'fpga design', 'fpga chip programmable', 'explore fpga technologies', 'programmable chip fpga', 'fpga technologies']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['program advantages function', 'converting program advantages', 'data structures stl', 'program advantages', 'advantages function generics', 'methods stl', 'structures stl', 'member functions', 'vector methods stl', 'stl input']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['xr development', 'material creation', 'creating player animator', 'development setting character', 'development setting', 'creating post processing', 'player animator', 'prefab creation', 'design adding', 'xr development setting']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['architectural overview jenkins', 'overview jenkins', 'devops devops process', 'understating devops devops', 'devops process', 'understating devops', 'overview jenkins code', 'project jenkins', 'devops process git', 'process git introduction']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['foundations cnns', 'convolutional network', 'simple convolutional network', 'resnet50 cnn', 'learning resnet50 cnn', 'object detection convolutional', 'foundations cnns edge', 'convolution net architecture', 'convnets transfer learning', 'convolutional network example']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['linux fundamentals', 'beaglebone hardware understanding', 'beaglebone using', 'beaglebone hardware', 'arm systems testing', 'testing beaglebone', 'linux arm systems', 'linux arm', 'linux concepts', 'testing beaglebone hardware']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['laravel fundamentals laravel', 'fundamentals laravel', 'laravel fundamentals', 'fundamentals laravel blade', 'database laravel', 'engine database laravel', 'laravel blade', 'database eloquent', 'database tinker eloquent', 'database laravel migrations']
+</t>
+  </si>
+  <si>
+    <t>Unique Words</t>
+  </si>
+  <si>
+    <t>['tiva', 'microcontroller', 'course', 'based', 'armv7', 'cortexm', 'architecture', 'programming', 'peripherals', 'applications']</t>
+  </si>
+  <si>
+    <t>['optical', 'fiber', 'study', 'optic', 'measurement', 'techniques', 'various', 'associated', 'amplifiers', 'modes']</t>
+  </si>
+  <si>
+    <t>['basics', 'linux', 'os', 'theoretical', 'aspects', 'operating']</t>
+  </si>
+  <si>
+    <t>['implementation', 'using', 'programming', 'concepts', 'application', 'algebra', 'mathematical', 'modelling', 'computation', 'practical', 'problems', 'methods', 'problem', 'solving', 'important', 'numerical']</t>
+  </si>
+  <si>
+    <t>['language', 'processing', 'method', 'automata', 'model', 'finite', 'computer', 'thinking', 'design', 'provides', 'computes']</t>
+  </si>
+  <si>
+    <t>['systems', 'rtos', 'course', 'embedded', 'using', 'introduce', 'based', 'microcontroller', 'freertos', 'real', 'time', 'design']</t>
+  </si>
+  <si>
+    <t>['lines', 'waveguides', 'microwave', 'transmission', 'components', 'rf', 'communications', 'like', 'used']</t>
+  </si>
+  <si>
+    <t>['introduction', 'primary', 'networking', 'concepts', 'technologies', 'implement', 'small', 'networks', 'applications', 'variety']</t>
+  </si>
+  <si>
+    <t>['algorithms', 'machine', 'intelligence', 'concern', 'pursue', 'learning', 'automatically', 'learn', 'focus']</t>
+  </si>
+  <si>
+    <t>['translation', 'compiler', 'design', 'construction', 'course', 'language', 'act', 'practice']</t>
+  </si>
+  <si>
+    <t>['learn', 'design', 'cmos', 'logic', 'subsystems', 'digital', 'circuits', 'students', 'vlsi', 'semiconductor', 'potential', 'understand']</t>
+  </si>
+  <si>
+    <t>['fundamentals', 'satellite', 'communication', 'course', 'students', 'design', 'links', 'various', 'satellites', 'services', 'analysis']</t>
+  </si>
+  <si>
+    <t>['cloud', 'architecture', 'course', 'basics', 'computing', 'technologies', 'working', 'security', 'privacy']</t>
+  </si>
+  <si>
+    <t>['various', 'data', 'mining', 'warehousing', 'concepts', 'datasets', 'learning', 'course', 'techniques', 'apply', 'decision']</t>
+  </si>
+  <si>
+    <t>['net', 'technologies', 'framework', 'microsoft', 'blend', 'platform', 'allows', 'supported', 'provided']</t>
+  </si>
+  <si>
+    <t>['hardware', 'description', 'language', 'verilog', 'students', 'model', 'using', 'learn', 'introduce', 'hdl']</t>
+  </si>
+  <si>
+    <t>['computer', 'vision', 'applications', 'field', 'focuses', 'feature', 'extraction', 'surveillance', 'advanced', 'rendering', 'processing', 'signal', 'range', 'biometrics']</t>
+  </si>
+  <si>
+    <t>['multimedia', 'systems', 'technologies', 'current', 'research', 'streaming', 'discussed', 'processing', 'retrieving', 'term']</t>
+  </si>
+  <si>
+    <t>['parallel', 'processing', 'data', 'large', 'pattern', 'datasets', 'handle', 'big', 'huge', 'extremely']</t>
+  </si>
+  <si>
+    <t>['web', 'application', 'development', 'server', 'technology', 'java', 'students', 'applications', 'using', 'dynamic', 'frameworks']</t>
+  </si>
+  <si>
+    <t>['freertos', 'cortex', 'm3', 'various', 'functions', 'rtos', 'scheduling', 'porting', 'os', 'techniques', 'concepts', 'related']</t>
+  </si>
+  <si>
+    <t>['ad', 'hoc', 'network', 'wireless', 'mobile', 'adhoc', 'using', 'sensor']</t>
+  </si>
+  <si>
+    <t>['introduce', 'fundamentals', 'iot', 'understand', 'learn', 'use', 'applications', 'enablers', 'various']</t>
+  </si>
+  <si>
+    <t>['students', 'learn', 'kotlin', 'programming', 'understand', 'android', 'language', 'app', 'development']</t>
+  </si>
+  <si>
+    <t>['usable', 'software', 'systems', 'human', 'computer', 'interaction', 'knowledge', 'skills', 'needed', 'highly', 'create', 'advancement', 'theory']</t>
+  </si>
+  <si>
+    <t>['introduction', 'flutter', 'basics', 'internals', 'running', 'apps', 'widget', 'deep']</t>
+  </si>
+  <si>
+    <t>['introduction', 'digital', 'marketing', 'market', 'research', 'pinterest', 'facebook', 'copywriting', 'twitter', 'email']</t>
+  </si>
+  <si>
+    <t>['vlsi', 'physical', 'design', 'chip', 'testability', 'flow', 'power', 'consumption', 'delay', 'low']</t>
+  </si>
+  <si>
+    <t>['visualizations', 'visual', 'analytics', 'types', 'suitable', 'appropriate', 'gestalt', 'visuals', 'interactive']</t>
+  </si>
+  <si>
+    <t>['introduction', 'mongodb', 'bigdata', 'data', 'document', 'making', 'queries', 'graphing', 'query', 'model']</t>
+  </si>
+  <si>
+    <t>['basics', 'network', 'architectures', 'osi', 'ethernet', 'routers', 'data', 'topologies']</t>
+  </si>
+  <si>
+    <t>['fpga', 'design', 'flow', 'architecture', 'explore', 'configurable', 'chip', 'programmable', 'technologies']</t>
+  </si>
+  <si>
+    <t>['program', 'advantages', 'function', 'converting', 'data', 'structures', 'stl', 'generics', 'methods', 'member', 'functions', 'vector', 'input']</t>
+  </si>
+  <si>
+    <t>['xr', 'development', 'material', 'creation', 'creating', 'player', 'animator', 'setting', 'character', 'post', 'processing', 'prefab', 'design', 'adding']</t>
+  </si>
+  <si>
+    <t>['architectural', 'overview', 'jenkins', 'devops', 'process', 'understating', 'code', 'project', 'git', 'introduction']</t>
+  </si>
+  <si>
+    <t>['foundations', 'cnns', 'convolutional', 'network', 'simple', 'resnet50', 'cnn', 'learning', 'object', 'detection', 'edge', 'convolution', 'net', 'architecture', 'convnets', 'transfer', 'example']</t>
+  </si>
+  <si>
+    <t>['linux', 'fundamentals', 'beaglebone', 'hardware', 'understanding', 'using', 'arm', 'systems', 'testing', 'concepts']</t>
+  </si>
+  <si>
+    <t>['spread spectrum cdma', 'communications spread spectrum', 'introduction digital communications', 'sequence spread spectrum', 'spread spectrum performance', 'digital communications spread', 'spread spectrum frequency', 'spectrum cdma', 'spectrum frequency hopping', 'frequency hopping']</t>
+  </si>
+  <si>
+    <t>['laravel', 'fundamentals', 'blade', 'database', 'engine', 'eloquent', 'tinker', 'migrations']</t>
+  </si>
+  <si>
+    <t>['spread', 'spectrum', 'cdma', 'communications', 'introduction', 'digital', 'sequence', 'performance', 'frequency', 'hopping']</t>
   </si>
 </sst>
 </file>
@@ -883,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -895,9 +1037,10 @@
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="4" max="4" width="55.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,8 +1056,11 @@
       <c r="E1" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="158.4">
+      <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="158.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -928,10 +1074,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="86.4">
+        <v>122</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="86.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -945,10 +1094,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="100.8">
+        <v>123</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="100.8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -962,10 +1114,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="144">
+        <v>124</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="144">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -979,10 +1134,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="129.6">
+        <v>125</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="129.6">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -996,10 +1154,13 @@
         <v>86</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="115.2">
+        <v>126</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="100.8">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1013,10 +1174,13 @@
         <v>87</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="144">
+        <v>127</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="129.6">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1030,10 +1194,13 @@
         <v>88</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="144">
+        <v>128</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="129.6">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1047,10 +1214,13 @@
         <v>89</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="158.4">
+        <v>129</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="158.4">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1064,10 +1234,13 @@
         <v>90</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="129.6">
+        <v>130</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="115.2">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1081,10 +1254,13 @@
         <v>91</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="115.2">
+        <v>131</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="115.2">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1098,10 +1274,13 @@
         <v>92</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="129.6">
+        <v>132</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="115.2">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -1115,10 +1294,13 @@
         <v>93</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="115.2">
+        <v>133</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="115.2">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1132,10 +1314,13 @@
         <v>94</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="115.2">
+        <v>134</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="129.6">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
@@ -1149,10 +1334,13 @@
         <v>95</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="115.2">
+        <v>135</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="129.6">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -1166,10 +1354,13 @@
         <v>96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="129.6">
+        <v>136</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="115.2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -1183,10 +1374,13 @@
         <v>97</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="144">
+        <v>137</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="129.6">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -1200,10 +1394,13 @@
         <v>98</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="144">
+        <v>138</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="144">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -1217,10 +1414,13 @@
         <v>99</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="100.8">
+        <v>139</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="100.8">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -1234,10 +1434,13 @@
         <v>100</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="129.6">
+        <v>140</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="115.2">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -1251,10 +1454,13 @@
         <v>101</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="115.2">
+        <v>141</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="115.2">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -1268,10 +1474,13 @@
         <v>102</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="129.6">
+        <v>142</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="129.6">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -1285,10 +1494,13 @@
         <v>103</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="72">
+        <v>143</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="129.6">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
@@ -1302,10 +1514,13 @@
         <v>104</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="115.2">
+        <v>144</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="129.6">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -1319,10 +1534,13 @@
         <v>105</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="115.2">
+        <v>145</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="129.6">
       <c r="A26" s="5" t="s">
         <v>55</v>
       </c>
@@ -1336,10 +1554,13 @@
         <v>106</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="129.6">
+        <v>146</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="129.6">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -1353,10 +1574,13 @@
         <v>107</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="100.8">
+        <v>147</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="115.2">
       <c r="A28" s="5" t="s">
         <v>59</v>
       </c>
@@ -1370,10 +1594,13 @@
         <v>108</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="100.8">
+        <v>148</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="100.8">
       <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
@@ -1387,10 +1614,13 @@
         <v>109</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="158.4">
+        <v>149</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="158.4">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -1404,10 +1634,13 @@
         <v>110</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="129.6">
+        <v>150</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="129.6">
       <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
@@ -1421,10 +1654,13 @@
         <v>111</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="100.8">
+        <v>151</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="100.8">
       <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
@@ -1438,10 +1674,13 @@
         <v>112</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="86.4">
+        <v>152</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="100.8">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -1455,10 +1694,13 @@
         <v>113</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="216">
+        <v>153</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="216">
       <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
@@ -1472,10 +1714,13 @@
         <v>114</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="100.8">
+        <v>154</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="100.8">
       <c r="A35" s="5" t="s">
         <v>73</v>
       </c>
@@ -1489,10 +1734,13 @@
         <v>115</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="144">
+        <v>155</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="144">
       <c r="A36" s="5" t="s">
         <v>75</v>
       </c>
@@ -1506,10 +1754,13 @@
         <v>116</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="158.4">
+        <v>156</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="158.4">
       <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
@@ -1523,10 +1774,13 @@
         <v>117</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="259.2">
+        <v>157</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="259.2">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -1540,10 +1794,13 @@
         <v>118</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="100.8">
+        <v>158</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="115.2">
       <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
@@ -1557,10 +1814,13 @@
         <v>119</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="144">
+        <v>198</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="144">
       <c r="A40" s="5" t="s">
         <v>83</v>
       </c>
@@ -1571,10 +1831,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>160</v>
+      <c r="F40" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Elective Courses.xlsx
+++ b/Elective Courses.xlsx
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Elective Courses.xlsx
+++ b/Elective Courses.xlsx
@@ -608,9 +608,6 @@
     <t>['parallel', 'processing', 'data', 'large', 'pattern', 'datasets', 'handle', 'big', 'huge', 'extremely']</t>
   </si>
   <si>
-    <t>['web', 'application', 'development', 'server', 'technology', 'java', 'students', 'applications', 'using', 'dynamic', 'frameworks']</t>
-  </si>
-  <si>
     <t>['freertos', 'cortex', 'm3', 'various', 'functions', 'rtos', 'scheduling', 'porting', 'os', 'techniques', 'concepts', 'related']</t>
   </si>
   <si>
@@ -665,10 +662,13 @@
     <t>['spread spectrum cdma', 'communications spread spectrum', 'introduction digital communications', 'sequence spread spectrum', 'spread spectrum performance', 'digital communications spread', 'spread spectrum frequency', 'spectrum cdma', 'spectrum frequency hopping', 'frequency hopping']</t>
   </si>
   <si>
-    <t>['laravel', 'fundamentals', 'blade', 'database', 'engine', 'eloquent', 'tinker', 'migrations']</t>
-  </si>
-  <si>
     <t>['spread', 'spectrum', 'cdma', 'communications', 'introduction', 'digital', 'sequence', 'performance', 'frequency', 'hopping']</t>
+  </si>
+  <si>
+    <t>['advance','web','development','laravel', 'fundamentals', 'blade', 'database', 'engine', 'eloquent', 'tinker', 'migrations']</t>
+  </si>
+  <si>
+    <t>['web','desktop','apps','server', 'technology', 'java', 'students', 'applications', 'using', 'dynamic', 'frameworks']</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1457,7 +1457,7 @@
         <v>141</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="115.2">
@@ -1477,7 +1477,7 @@
         <v>142</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="129.6">
@@ -1497,7 +1497,7 @@
         <v>143</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="129.6">
@@ -1517,7 +1517,7 @@
         <v>144</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="129.6">
@@ -1537,7 +1537,7 @@
         <v>145</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="129.6">
@@ -1557,7 +1557,7 @@
         <v>146</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="129.6">
@@ -1577,7 +1577,7 @@
         <v>147</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="115.2">
@@ -1597,7 +1597,7 @@
         <v>148</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100.8">
@@ -1617,7 +1617,7 @@
         <v>149</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="158.4">
@@ -1637,7 +1637,7 @@
         <v>150</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="129.6">
@@ -1657,7 +1657,7 @@
         <v>151</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100.8">
@@ -1677,7 +1677,7 @@
         <v>152</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100.8">
@@ -1697,7 +1697,7 @@
         <v>153</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="216">
@@ -1717,7 +1717,7 @@
         <v>154</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100.8">
@@ -1737,7 +1737,7 @@
         <v>155</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="144">
@@ -1757,7 +1757,7 @@
         <v>156</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="158.4">
@@ -1777,7 +1777,7 @@
         <v>157</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="259.2">
@@ -1797,7 +1797,7 @@
         <v>158</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="115.2">
@@ -1814,10 +1814,10 @@
         <v>119</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="144">

--- a/Elective Courses.xlsx
+++ b/Elective Courses.xlsx
@@ -371,9 +371,6 @@
     <t>Converting a C Program to C++, C++ Advantages Function in C++, C++ Generics and Functions, Multiple Template Arguments, Graph Theory &amp; Algorithms, C++ Creating Types, Enum &amp; Operator Overloading, Natural Way to Build Widgets, C++ Classes &amp; Object Orientation, Constructors, Deep vs. Shallow Copy, Destructor, Dynamic Data Structures in STL, MST, C++11 Feature: auto, Vector Methods, STL Input File, Iterators Categories, Bidirectional Iterator, Random Access Iterator, Lambda Expressions: for each Function, Function Adapters, Basics of Inheritance, Traits and Inheritance, Virtual Member Functions, The Inheritance Mechanism, A Derived Class, Virtual, Referential Garbage Collection, Abstract Base Class = 0 Notation, Assertion &amp; Exception Handling, Static Asserts - New C++11 Feature, Design Patterns, C++11 Standard, Thread, C++11 New Library, Factory Method, UML diagrams.</t>
   </si>
   <si>
-    <t>Asset Import and Configuration, Material Creation, Prefab Creation, Lighting with a Skybox, Creating Lights and Configuring Lighting Settings, Tuning Reflection, Creating Post-Processing Effects, UI Design, Adding Interactivity, Interpreting for XR Development, Setting Up a Character Controller, Creating the Player Animator Controller, Creating the Player Camera, Working with Collaborate</t>
-  </si>
-  <si>
     <t>Understating of DevOps &amp; DevOps Process, Git introduction and installation, Configure User Information in GIT, GIT Text Editor, Compare Stage Area with Local Repository in GIT, Architectural Overview of Jenkins, Code Pipeline, Configure Jenkins with GIT &amp; Maven, Remote Build Trigger in Jenkins, Jenkins Job DSL with Maven Project, Jenkins as a code pipeline, Docker File Instructions &amp; Construction Commands, Stop-Remove the Containers, Docker CLI Monitoring, Docker Swarm, Kubernetes, Kubernetes Node Workflow, HELM on Kubernetes, AWS VPC, EC2 Instance Auto scaling, EKS Cluster Using AWS</t>
   </si>
   <si>
@@ -647,9 +644,6 @@
     <t>['program', 'advantages', 'function', 'converting', 'data', 'structures', 'stl', 'generics', 'methods', 'member', 'functions', 'vector', 'input']</t>
   </si>
   <si>
-    <t>['xr', 'development', 'material', 'creation', 'creating', 'player', 'animator', 'setting', 'character', 'post', 'processing', 'prefab', 'design', 'adding']</t>
-  </si>
-  <si>
     <t>['architectural', 'overview', 'jenkins', 'devops', 'process', 'understating', 'code', 'project', 'git', 'introduction']</t>
   </si>
   <si>
@@ -669,6 +663,12 @@
   </si>
   <si>
     <t>['web','desktop','apps','server', 'technology', 'java', 'students', 'applications', 'using', 'dynamic', 'frameworks']</t>
+  </si>
+  <si>
+    <t>['game','development','xr', 'development', 'material', 'creation', 'creating', 'player', 'animator', 'setting', 'character', 'post', 'processing', 'prefab', 'design', 'adding']</t>
+  </si>
+  <si>
+    <t>Game development Based On Asset Import and Configuration, Material Creation, Prefab Creation, Lighting with a Skybox, Creating Lights and Configuring Lighting Settings, Tuning Reflection, Creating Post-Processing Effects, UI Design, Adding Interactivity, Interpreting for XR Development, Setting Up a Character Controller, Creating the Player Animator Controller, Creating the Player Camera, Working with Collaborate</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1054,10 +1054,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="158.4">
@@ -1074,10 +1074,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="86.4">
@@ -1094,10 +1094,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100.8">
@@ -1114,10 +1114,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="144">
@@ -1134,10 +1134,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="129.6">
@@ -1154,10 +1154,10 @@
         <v>86</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100.8">
@@ -1174,10 +1174,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="129.6">
@@ -1194,10 +1194,10 @@
         <v>88</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="129.6">
@@ -1214,10 +1214,10 @@
         <v>89</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="158.4">
@@ -1234,10 +1234,10 @@
         <v>90</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="115.2">
@@ -1254,10 +1254,10 @@
         <v>91</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="115.2">
@@ -1274,10 +1274,10 @@
         <v>92</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="115.2">
@@ -1294,10 +1294,10 @@
         <v>93</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="115.2">
@@ -1314,10 +1314,10 @@
         <v>94</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="129.6">
@@ -1334,10 +1334,10 @@
         <v>95</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="129.6">
@@ -1354,10 +1354,10 @@
         <v>96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="115.2">
@@ -1374,10 +1374,10 @@
         <v>97</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="129.6">
@@ -1394,10 +1394,10 @@
         <v>98</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="144">
@@ -1414,10 +1414,10 @@
         <v>99</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100.8">
@@ -1434,10 +1434,10 @@
         <v>100</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="115.2">
@@ -1454,10 +1454,10 @@
         <v>101</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="115.2">
@@ -1474,10 +1474,10 @@
         <v>102</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="129.6">
@@ -1494,10 +1494,10 @@
         <v>103</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="129.6">
@@ -1514,10 +1514,10 @@
         <v>104</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="129.6">
@@ -1534,10 +1534,10 @@
         <v>105</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="129.6">
@@ -1554,10 +1554,10 @@
         <v>106</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="129.6">
@@ -1574,10 +1574,10 @@
         <v>107</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="115.2">
@@ -1594,10 +1594,10 @@
         <v>108</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100.8">
@@ -1614,10 +1614,10 @@
         <v>109</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="158.4">
@@ -1634,10 +1634,10 @@
         <v>110</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="129.6">
@@ -1654,10 +1654,10 @@
         <v>111</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100.8">
@@ -1674,10 +1674,10 @@
         <v>112</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100.8">
@@ -1694,10 +1694,10 @@
         <v>113</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="216">
@@ -1714,10 +1714,10 @@
         <v>114</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100.8">
@@ -1731,13 +1731,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="144">
@@ -1751,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="158.4">
@@ -1771,13 +1771,13 @@
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="259.2">
@@ -1791,13 +1791,13 @@
         <v>8</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="115.2">
@@ -1811,13 +1811,13 @@
         <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="144">
@@ -1831,13 +1831,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
